--- a/Technology/Software/SAP.xlsx
+++ b/Technology/Software/SAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E997DBB-156C-854C-8B27-62955495C74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE5141E-2EEC-904D-95D4-795C909C4D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2440,9 +2440,11 @@
     <v>Powered by Refinitiv</v>
     <v>137.32</v>
     <v>78.22</v>
-    <v>1.1928000000000001</v>
-    <v>0.38</v>
-    <v>2.8379999999999998E-3</v>
+    <v>1.1952</v>
+    <v>1.97</v>
+    <v>1.5219E-2</v>
+    <v>-1.95</v>
+    <v>-1.4839E-2</v>
     <v>USD</v>
     <v>SAP SE (SAP) is a Germany-based company that offers enterprise application software. The Company operates through three segments: Applications, Technology &amp; Services segment, which is engaged in the sale of software licenses, subscriptions to its cloud applications, and related services, primarily support services and various professional services, and support services, as well as implementation services of its software products and education services on the use of its products; the SAP Business Network segment, which includes its cloud-based collaborative business networks and services relating to the SAP Business Network, including cloud applications, professional services and education services, as well as the Company markets and sells the cloud offerings developed by SAP Ariba, SAP Fieldglass and Concur, and the Customer Experience segment, which comprises on-premise and cloud-based products that run front office functions across the customer experience.</v>
     <v>105132</v>
@@ -2450,24 +2452,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Dietmar-Hopp-Allee 16, WALLDORF, BADEN-WUERTTEMBERG, 69190 DE</v>
-    <v>135.12</v>
+    <v>131.63</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45065.958333356248</v>
+    <v>45072.973267001566</v>
     <v>0</v>
-    <v>134.28</v>
-    <v>164684300000</v>
+    <v>130.04</v>
+    <v>159503100000</v>
     <v>SAP SE</v>
     <v>SAP SE</v>
-    <v>134.58000000000001</v>
-    <v>75.667100000000005</v>
-    <v>133.9</v>
-    <v>134.28</v>
+    <v>130.13</v>
+    <v>72.939800000000005</v>
+    <v>129.44</v>
+    <v>131.41</v>
+    <v>129.46</v>
     <v>1228504000</v>
     <v>SAP</v>
     <v>SAP SE (XNYS:SAP)</v>
-    <v>696744</v>
-    <v>1167704</v>
+    <v>832101</v>
+    <v>1080542</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2499,6 +2502,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2519,6 +2524,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2535,7 +2541,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2546,13 +2552,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2618,13 +2627,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2669,6 +2684,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2676,6 +2694,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3040,7 +3061,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Z89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD94" sqref="AD94"/>
+      <selection pane="bottomRight" activeCell="AC101" sqref="AC101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4694,15 +4715,15 @@
       </c>
       <c r="AI16" s="30">
         <f>AJ101/AB3</f>
-        <v>5.3344227779217412</v>
+        <v>5.1665943249546515</v>
       </c>
       <c r="AJ16" s="30">
         <f>AJ101/AB28</f>
-        <v>71.914541484716153</v>
+        <v>69.652008733624456</v>
       </c>
       <c r="AK16" s="31">
         <f>AJ101/AB106</f>
-        <v>34.510540653813912</v>
+        <v>33.424790444258171</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11710,7 +11731,7 @@
       </c>
       <c r="AJ95" s="39" cm="1">
         <f t="array" ref="AJ95">_FV(A1,"Beta")</f>
-        <v>1.1928000000000001</v>
+        <v>1.1952</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -11895,7 +11916,7 @@
       </c>
       <c r="AJ97" s="36">
         <f>(AJ94)+((AJ95)*(AJ96-AJ94))</f>
-        <v>9.230004E-2</v>
+        <v>9.2403360000000018E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12171,7 +12192,7 @@
       </c>
       <c r="AJ100" s="34">
         <f>AJ99/AJ103</f>
-        <v>8.0260120755989914E-2</v>
+        <v>8.2651757794864208E-2</v>
       </c>
     </row>
     <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12264,7 +12285,7 @@
       </c>
       <c r="AJ101" s="40" cm="1">
         <f t="array" ref="AJ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>164684300000</v>
+        <v>159503100000</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12357,7 +12378,7 @@
       </c>
       <c r="AJ102" s="34">
         <f>AJ101/AJ103</f>
-        <v>0.91973987924401013</v>
+        <v>0.91734824220513578</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12450,7 +12471,7 @@
       </c>
       <c r="AJ103" s="41">
         <f>AJ99+AJ101</f>
-        <v>179055300000</v>
+        <v>173874100000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12663,7 +12684,7 @@
       </c>
       <c r="AJ105" s="26">
         <f>(AJ100*AJ92)+(AJ102*AJ97)</f>
-        <v>9.1718443565830671E-2</v>
+        <v>9.1795893242621426E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12817,7 +12838,7 @@
       <c r="AF107" s="43"/>
       <c r="AG107" s="46">
         <f>AG106*(1+AJ107)/(AJ108-AJ107)</f>
-        <v>111901177169.82701</v>
+        <v>111771428025.32758</v>
       </c>
       <c r="AH107" s="47" t="s">
         <v>148</v>
@@ -12848,7 +12869,7 @@
       </c>
       <c r="AG108" s="46">
         <f>AG107+AG106</f>
-        <v>119184955095.63689</v>
+        <v>119055205951.13745</v>
       </c>
       <c r="AH108" s="47" t="s">
         <v>144</v>
@@ -12858,7 +12879,7 @@
       </c>
       <c r="AJ108" s="51">
         <f>AJ105</f>
-        <v>9.1718443565830671E-2</v>
+        <v>9.1795893242621426E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12873,7 +12894,7 @@
       </c>
       <c r="AD110" s="40">
         <f>NPV(AJ108,AC108,AD108,AE108,AF108,AG108)</f>
-        <v>95791457648.277618</v>
+        <v>95677212515.014252</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12900,7 +12921,7 @@
       </c>
       <c r="AD113" s="40">
         <f>AD110+AD111-AD112</f>
-        <v>91282457648.277618</v>
+        <v>91168212515.014252</v>
       </c>
     </row>
     <row r="114" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12918,7 +12939,7 @@
       </c>
       <c r="AD115" s="55">
         <f>AD113/AD114</f>
-        <v>78.598940807314065</v>
+        <v>78.500569809224913</v>
       </c>
     </row>
     <row r="116" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12927,7 +12948,7 @@
       </c>
       <c r="AD116" s="56" cm="1">
         <f t="array" ref="AD116">_FV(A1,"Price")</f>
-        <v>134.28</v>
+        <v>131.41</v>
       </c>
     </row>
     <row r="117" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12936,7 +12957,7 @@
       </c>
       <c r="AD117" s="58">
         <f>AD115/AD116-1</f>
-        <v>-0.41466383074684199</v>
+        <v>-0.40262864462959502</v>
       </c>
     </row>
     <row r="118" spans="29:30" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/SAP.xlsx
+++ b/Technology/Software/SAP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE5141E-2EEC-904D-95D4-795C909C4D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE37CAB-8433-D848-B9ED-5F6F7A33FD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2438,13 +2438,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>137.32</v>
+    <v>139.25</v>
     <v>78.22</v>
-    <v>1.1952</v>
-    <v>1.97</v>
-    <v>1.5219E-2</v>
-    <v>-1.95</v>
-    <v>-1.4839E-2</v>
+    <v>1.1912</v>
+    <v>0.32</v>
+    <v>2.3739999999999998E-3</v>
     <v>USD</v>
     <v>SAP SE (SAP) is a Germany-based company that offers enterprise application software. The Company operates through three segments: Applications, Technology &amp; Services segment, which is engaged in the sale of software licenses, subscriptions to its cloud applications, and related services, primarily support services and various professional services, and support services, as well as implementation services of its software products and education services on the use of its products; the SAP Business Network segment, which includes its cloud-based collaborative business networks and services relating to the SAP Business Network, including cloud applications, professional services and education services, as well as the Company markets and sells the cloud offerings developed by SAP Ariba, SAP Fieldglass and Concur, and the Customer Experience segment, which comprises on-premise and cloud-based products that run front office functions across the customer experience.</v>
     <v>105132</v>
@@ -2452,25 +2450,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>Dietmar-Hopp-Allee 16, WALLDORF, BADEN-WUERTTEMBERG, 69190 DE</v>
-    <v>131.63</v>
+    <v>135.41999999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45072.973267001566</v>
+    <v>45099.958333356248</v>
     <v>0</v>
-    <v>130.04</v>
-    <v>159503100000</v>
+    <v>134.30000000000001</v>
+    <v>164946700000</v>
     <v>SAP SE</v>
     <v>SAP SE</v>
-    <v>130.13</v>
-    <v>72.939800000000005</v>
-    <v>129.44</v>
-    <v>131.41</v>
-    <v>129.46</v>
+    <v>134.38</v>
+    <v>76.134799999999998</v>
+    <v>134.79</v>
+    <v>135.11000000000001</v>
     <v>1228504000</v>
     <v>SAP</v>
     <v>SAP SE (XNYS:SAP)</v>
-    <v>832101</v>
-    <v>1080542</v>
+    <v>237</v>
+    <v>859171</v>
     <v>2014</v>
   </rv>
   <rv s="2">
@@ -2502,8 +2499,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2524,7 +2519,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2541,7 +2535,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2552,16 +2546,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2627,19 +2618,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2684,9 +2669,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2694,9 +2676,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3061,7 +3040,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="Z89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC101" sqref="AC101"/>
+      <selection pane="bottomRight" activeCell="AA116" sqref="AA116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4715,15 +4694,15 @@
       </c>
       <c r="AI16" s="30">
         <f>AJ101/AB3</f>
-        <v>5.1665943249546515</v>
+        <v>5.3429223892200053</v>
       </c>
       <c r="AJ16" s="30">
         <f>AJ101/AB28</f>
-        <v>69.652008733624456</v>
+        <v>72.029126637554583</v>
       </c>
       <c r="AK16" s="31">
         <f>AJ101/AB106</f>
-        <v>33.424790444258171</v>
+        <v>34.565528080469406</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -11731,7 +11710,7 @@
       </c>
       <c r="AJ95" s="39" cm="1">
         <f t="array" ref="AJ95">_FV(A1,"Beta")</f>
-        <v>1.1952</v>
+        <v>1.1912</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -11916,7 +11895,7 @@
       </c>
       <c r="AJ97" s="36">
         <f>(AJ94)+((AJ95)*(AJ96-AJ94))</f>
-        <v>9.2403360000000018E-2</v>
+        <v>9.2231160000000006E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12192,7 +12171,7 @@
       </c>
       <c r="AJ100" s="34">
         <f>AJ99/AJ103</f>
-        <v>8.2651757794864208E-2</v>
+        <v>8.0142674147616208E-2</v>
       </c>
     </row>
     <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12285,7 +12264,7 @@
       </c>
       <c r="AJ101" s="40" cm="1">
         <f t="array" ref="AJ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>159503100000</v>
+        <v>164946700000</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12378,7 +12357,7 @@
       </c>
       <c r="AJ102" s="34">
         <f>AJ101/AJ103</f>
-        <v>0.91734824220513578</v>
+        <v>0.91985732585238378</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12471,7 +12450,7 @@
       </c>
       <c r="AJ103" s="41">
         <f>AJ99+AJ101</f>
-        <v>173874100000</v>
+        <v>179317700000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12684,7 +12663,7 @@
       </c>
       <c r="AJ105" s="26">
         <f>(AJ100*AJ92)+(AJ102*AJ97)</f>
-        <v>9.1795893242621426E-2</v>
+        <v>9.1655934857590077E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12838,7 +12817,7 @@
       <c r="AF107" s="43"/>
       <c r="AG107" s="46">
         <f>AG106*(1+AJ107)/(AJ108-AJ107)</f>
-        <v>111771428025.32758</v>
+        <v>112006116033.11702</v>
       </c>
       <c r="AH107" s="47" t="s">
         <v>148</v>
@@ -12869,7 +12848,7 @@
       </c>
       <c r="AG108" s="46">
         <f>AG107+AG106</f>
-        <v>119055205951.13745</v>
+        <v>119289893958.9269</v>
       </c>
       <c r="AH108" s="47" t="s">
         <v>144</v>
@@ -12879,7 +12858,7 @@
       </c>
       <c r="AJ108" s="51">
         <f>AJ105</f>
-        <v>9.1795893242621426E-2</v>
+        <v>9.1655934857590077E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12894,7 +12873,7 @@
       </c>
       <c r="AD110" s="40">
         <f>NPV(AJ108,AC108,AD108,AE108,AF108,AG108)</f>
-        <v>95677212515.014252</v>
+        <v>95883857793.509201</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12921,7 +12900,7 @@
       </c>
       <c r="AD113" s="40">
         <f>AD110+AD111-AD112</f>
-        <v>91168212515.014252</v>
+        <v>91374857793.509201</v>
       </c>
     </row>
     <row r="114" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12939,7 +12918,7 @@
       </c>
       <c r="AD115" s="55">
         <f>AD113/AD114</f>
-        <v>78.500569809224913</v>
+        <v>78.678502135226907</v>
       </c>
     </row>
     <row r="116" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12948,7 +12927,7 @@
       </c>
       <c r="AD116" s="56" cm="1">
         <f t="array" ref="AD116">_FV(A1,"Price")</f>
-        <v>131.41</v>
+        <v>135.11000000000001</v>
       </c>
     </row>
     <row r="117" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12957,7 +12936,7 @@
       </c>
       <c r="AD117" s="58">
         <f>AD115/AD116-1</f>
-        <v>-0.40262864462959502</v>
+        <v>-0.41767077096271998</v>
       </c>
     </row>
     <row r="118" spans="29:30" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Software/SAP.xlsx
+++ b/Technology/Software/SAP.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE37CAB-8433-D848-B9ED-5F6F7A33FD85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A93C71-4CE1-D543-AC73-8CA07C12B66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -510,9 +507,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,17 +544,49 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -866,19 +892,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -893,12 +906,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -940,64 +962,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1017,24 +994,77 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,18 +1117,9 @@
               <a:rPr lang="en-US" sz="2400"/>
               <a:t>SAP</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.47061584189393546"/>
-          <c:y val="1.9637927641968107E-2"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1132,10 +1153,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.3894039735099341E-2"/>
-          <c:y val="0.11667383760284301"/>
-          <c:w val="0.84120529801324506"/>
-          <c:h val="0.73589384076501319"/>
+          <c:x val="0.10581456953642385"/>
+          <c:y val="0.1581236226786808"/>
+          <c:w val="0.81736423841059602"/>
+          <c:h val="0.581859581104888"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1189,6 +1210,96 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$AB$3</c:f>
@@ -1281,7 +1392,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9195-F04B-82F1-D0CDAE7B1459}"/>
+              <c16:uniqueId val="{00000000-8B0B-B94C-B214-D4B326EA8CAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1290,11 +1401,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1332,99 +1443,189 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$AB$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$AB$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>1131804000</c:v>
+                  <c:v>567536000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>924489985</c:v>
+                  <c:v>467724078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1095241770</c:v>
+                  <c:v>536237874</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1150955901</c:v>
+                  <c:v>601449658</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1248913402</c:v>
+                  <c:v>634056929</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1337452900</c:v>
+                  <c:v>581061470</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1329734313</c:v>
+                  <c:v>509073715</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1981755161</c:v>
+                  <c:v>1075183319</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2275777471</c:v>
+                  <c:v>1309553142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2515094796</c:v>
+                  <c:v>1495271321</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2887011053</c:v>
+                  <c:v>1871234412</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3106305230</c:v>
+                  <c:v>1922493610</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3240431740</c:v>
+                  <c:v>1867684000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3033000000</c:v>
+                  <c:v>1748000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3010000000</c:v>
+                  <c:v>1811000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5652000000</c:v>
+                  <c:v>3438000000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4861000000</c:v>
+                  <c:v>2823000000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5529000000</c:v>
+                  <c:v>3326000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5517000000</c:v>
+                  <c:v>3280000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5534000000</c:v>
+                  <c:v>3064000000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6411000000</c:v>
+                  <c:v>3646000000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6538000000</c:v>
+                  <c:v>4018000000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7374000000</c:v>
+                  <c:v>4083000000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7008000000</c:v>
+                  <c:v>3321000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9611000000</c:v>
+                  <c:v>5145000000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9451000000</c:v>
+                  <c:v>5256000000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7769000000</c:v>
+                  <c:v>2290000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9195-F04B-82F1-D0CDAE7B1459}"/>
+              <c16:uniqueId val="{00000001-8B0B-B94C-B214-D4B326EA8CAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1433,11 +1634,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1475,9 +1676,99 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$AB$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$AB$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$AB$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="27"/>
@@ -1567,7 +1858,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9195-F04B-82F1-D0CDAE7B1459}"/>
+              <c16:uniqueId val="{00000002-8B0B-B94C-B214-D4B326EA8CAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1581,11 +1872,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="248141680"/>
-        <c:axId val="248269296"/>
+        <c:axId val="701443791"/>
+        <c:axId val="698203375"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248141680"/>
+        <c:axId val="701443791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1613,7 +1904,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1625,7 +1916,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248269296"/>
+        <c:crossAx val="698203375"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1633,7 +1924,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248269296"/>
+        <c:axId val="698203375"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1972,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248141680"/>
+        <c:crossAx val="701443791"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1699,10 +1990,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.352195755331908"/>
-          <c:y val="0.92267933235684896"/>
-          <c:w val="0.30355550920373364"/>
-          <c:h val="5.0318517135444878E-2"/>
+          <c:x val="0.35344610731605569"/>
+          <c:y val="0.89254689996148251"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="6.5753019846055735E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2284,20 +2575,20 @@
       <xdr:col>30</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>33338</xdr:rowOff>
+      <xdr:rowOff>41274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{256CA131-EBA8-DA35-6175-58C8C14C3AE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45C306A7-65F4-DF69-E241-B8517248F82C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,6 +2607,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3037,10 +3382,10 @@
   <dimension ref="A1:AK118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Z89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Y100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA116" sqref="AA116"/>
+      <selection pane="bottomRight" activeCell="AG134" sqref="AG134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3135,19 +3480,19 @@
       <c r="AB1" s="8">
         <v>2022</v>
       </c>
-      <c r="AC1" s="27">
+      <c r="AC1" s="23">
         <v>2023</v>
       </c>
-      <c r="AD1" s="27">
+      <c r="AD1" s="23">
         <v>2024</v>
       </c>
-      <c r="AE1" s="27">
+      <c r="AE1" s="23">
         <v>2025</v>
       </c>
-      <c r="AF1" s="27">
+      <c r="AF1" s="23">
         <v>2026</v>
       </c>
-      <c r="AG1" s="27">
+      <c r="AG1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3156,94 +3501,94 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF2" s="9"/>
       <c r="AG2" s="9"/>
@@ -3333,162 +3678,162 @@
       <c r="AB3" s="1">
         <v>30872000000</v>
       </c>
-      <c r="AC3" s="28">
-        <v>34434000000</v>
-      </c>
-      <c r="AD3" s="28">
-        <v>37168000000</v>
-      </c>
-      <c r="AE3" s="28">
-        <v>40523000000</v>
-      </c>
-      <c r="AF3" s="28">
-        <v>44068000000</v>
-      </c>
-      <c r="AG3" s="28">
-        <v>47098000000</v>
+      <c r="AC3" s="24">
+        <v>34200000000</v>
+      </c>
+      <c r="AD3" s="24">
+        <v>37188000000</v>
+      </c>
+      <c r="AE3" s="24">
+        <v>41239000000</v>
+      </c>
+      <c r="AF3" s="24">
+        <v>44427000000</v>
+      </c>
+      <c r="AG3" s="24">
+        <v>48418000000</v>
       </c>
       <c r="AH3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AK3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="15">
+      <c r="C4" s="73">
         <f>(C3/B3)-1</f>
         <v>-0.17165577367919083</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="73">
         <f>(D3/C3)-1</f>
         <v>0.40301305998109327</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="73">
         <f>(E3/D3)-1</f>
         <v>0.18221542027110349</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="73">
         <f t="shared" ref="F4:AG4" si="0">(F3/E3)-1</f>
         <v>0.22446566657930678</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="73">
         <f t="shared" si="0"/>
         <v>0.17273800450745358</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="73">
         <f t="shared" si="0"/>
         <v>1.0337451954299359E-2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="73">
         <f t="shared" si="0"/>
         <v>-5.4881742334678574E-2</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="73">
         <f t="shared" si="0"/>
         <v>7.0817560881164532E-2</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="73">
         <f t="shared" si="0"/>
         <v>0.13277838828943289</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="73">
         <f t="shared" si="0"/>
         <v>0.10527157288492672</v>
       </c>
-      <c r="M4" s="16">
+      <c r="M4" s="73">
         <f t="shared" si="0"/>
         <v>9.1172948078649618E-2</v>
       </c>
-      <c r="N4" s="16">
+      <c r="N4" s="73">
         <f t="shared" si="0"/>
         <v>0.12716811097026759</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="73">
         <f t="shared" si="0"/>
         <v>-7.7065624036327218E-2</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="73">
         <f t="shared" si="0"/>
         <v>0.16791604197901044</v>
       </c>
-      <c r="Q4" s="16">
+      <c r="Q4" s="73">
         <f t="shared" si="0"/>
         <v>0.14192875481386391</v>
       </c>
-      <c r="R4" s="16">
+      <c r="R4" s="73">
         <f t="shared" si="0"/>
         <v>0.13981592074755844</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="73">
         <f t="shared" si="0"/>
         <v>3.6491401097207721E-2</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="73">
         <f t="shared" si="0"/>
         <v>4.4365150163544476E-2</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="73">
         <f t="shared" si="0"/>
         <v>0.1840441888275155</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="73">
         <f t="shared" si="0"/>
         <v>6.1030154378877599E-2</v>
       </c>
-      <c r="W4" s="16">
+      <c r="W4" s="73">
         <f t="shared" si="0"/>
         <v>6.3366875169975634E-2</v>
       </c>
-      <c r="X4" s="16">
+      <c r="X4" s="73">
         <f t="shared" si="0"/>
         <v>5.3196930946291632E-2</v>
       </c>
-      <c r="Y4" s="16">
+      <c r="Y4" s="73">
         <f t="shared" si="0"/>
         <v>0.11514489234256109</v>
       </c>
-      <c r="Z4" s="16">
+      <c r="Z4" s="73">
         <f t="shared" si="0"/>
         <v>-7.8031430334264407E-3</v>
       </c>
-      <c r="AA4" s="16">
+      <c r="AA4" s="73">
         <f t="shared" si="0"/>
         <v>1.8435876801521589E-2</v>
       </c>
-      <c r="AB4" s="16">
+      <c r="AB4" s="73">
         <f t="shared" si="0"/>
         <v>0.10882838876517487</v>
       </c>
       <c r="AC4" s="16">
         <f t="shared" si="0"/>
-        <v>0.11537963202902302</v>
+        <v>0.10779994817310179</v>
       </c>
       <c r="AD4" s="16">
         <f t="shared" si="0"/>
-        <v>7.9398269152581857E-2</v>
+        <v>8.736842105263154E-2</v>
       </c>
       <c r="AE4" s="16">
         <f t="shared" si="0"/>
-        <v>9.0265820060266844E-2</v>
+        <v>0.10893298913628047</v>
       </c>
       <c r="AF4" s="16">
         <f t="shared" si="0"/>
-        <v>8.7481183525405237E-2</v>
+        <v>7.7305463275055164E-2</v>
       </c>
       <c r="AG4" s="16">
         <f t="shared" si="0"/>
-        <v>6.8757374965961793E-2</v>
+        <v>8.9832759358048131E-2</v>
       </c>
       <c r="AH4" s="17">
         <f>(AB4+AA4+Z4)/3</f>
@@ -3503,7 +3848,7 @@
         <v>2.1663482895018329E-3</v>
       </c>
       <c r="AK4" s="17">
-        <f>(AB105+AA105+Z105)/3</f>
+        <f>(AB106+AA106+Z106)/3</f>
         <v>0.37032045567850824</v>
       </c>
     </row>
@@ -3679,16 +4024,16 @@
         <v>21936000000</v>
       </c>
       <c r="AH6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="AI6" s="19" t="s">
+      <c r="AK6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="AJ6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -3789,7 +4134,7 @@
         <v>7.4200000000000002E-2</v>
       </c>
       <c r="AK7" s="20">
-        <f>AB106/AB3</f>
+        <f>AB107/AB3</f>
         <v>0.15457372376263281</v>
       </c>
     </row>
@@ -3798,13 +4143,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1">
         <v>745222251</v>
@@ -3881,7 +4226,7 @@
     </row>
     <row r="9" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3992,16 +4337,16 @@
         <v>0.19969551697330915</v>
       </c>
       <c r="AH9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="AI9" s="19" t="s">
+      <c r="AJ9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AJ9" s="19" t="s">
+      <c r="AK9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="AK9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -4009,43 +4354,43 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="1">
         <v>564000000</v>
@@ -4103,7 +4448,7 @@
       </c>
       <c r="AK10" s="20">
         <f>AB89</f>
-        <v>0</v>
+        <v>2.6334542627623737E-2</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -4111,43 +4456,43 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O11" s="1">
         <v>2199000000</v>
@@ -4197,7 +4542,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>1863431773</v>
@@ -4278,21 +4623,21 @@
         <v>11015000000</v>
       </c>
       <c r="AH12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="AI12" s="19" t="s">
+      <c r="AK12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="AJ12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -4445,7 +4790,7 @@
         <v>7408533631</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1">
         <v>-8761425</v>
@@ -4469,7 +4814,7 @@
         <v>-9000000</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R14" s="1">
         <v>-28000000</v>
@@ -4591,16 +4936,16 @@
         <v>17125000000</v>
       </c>
       <c r="AH15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="AI15" s="19" t="s">
+      <c r="AK15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="AJ15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:37" ht="19" x14ac:dyDescent="0.25">
@@ -4688,65 +5033,65 @@
       <c r="AB16" s="1">
         <v>26061000000</v>
       </c>
-      <c r="AH16" s="29">
+      <c r="AH16" s="25">
         <f>(AB35+AA35+Z35+Y35+X35)/5</f>
         <v>-3.0874170244174159E-3</v>
       </c>
-      <c r="AI16" s="30">
+      <c r="AI16" s="61">
         <f>AJ101/AB3</f>
         <v>5.3429223892200053</v>
       </c>
-      <c r="AJ16" s="30">
+      <c r="AJ16" s="61">
         <f>AJ101/AB28</f>
         <v>72.029126637554583</v>
       </c>
-      <c r="AK16" s="31">
-        <f>AJ101/AB106</f>
+      <c r="AK16" s="62">
+        <f>AJ101/AB107</f>
         <v>34.565528080469406</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O17" s="1">
         <v>101000000</v>
@@ -4791,7 +5136,7 @@
         <v>2205000000</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4877,10 +5222,19 @@
         <v>1896000000</v>
       </c>
       <c r="AH18" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
+      </c>
+      <c r="AI18" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="AJ18" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AK18" s="19" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4965,14 +5319,41 @@
       <c r="AB19" s="10">
         <v>7769000000</v>
       </c>
-      <c r="AH19" s="32">
+      <c r="AC19" s="65">
+        <v>11102000000</v>
+      </c>
+      <c r="AD19" s="65">
+        <v>12485000000</v>
+      </c>
+      <c r="AE19" s="65">
+        <v>14233000000</v>
+      </c>
+      <c r="AF19" s="65">
+        <v>16961000000</v>
+      </c>
+      <c r="AG19" s="65">
+        <v>19428000000</v>
+      </c>
+      <c r="AH19" s="26">
         <f>AB40-AB56-AB61</f>
         <v>-4509000000</v>
       </c>
+      <c r="AI19" s="61">
+        <f>AJ101/AC3</f>
+        <v>4.8230029239766079</v>
+      </c>
+      <c r="AJ19" s="61">
+        <f>AJ101/AC28</f>
+        <v>24.740767961601922</v>
+      </c>
+      <c r="AK19" s="62">
+        <f>AJ101/AC105</f>
+        <v>38.682497808431343</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4988,7 +5369,7 @@
         <v>5.0869253279118398E-2</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AB20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AG20" si="3">(F19/E19)-1</f>
         <v>8.5109690922901882E-2</v>
       </c>
       <c r="G20" s="15">
@@ -5079,8 +5460,28 @@
         <f t="shared" si="3"/>
         <v>-0.17797058512326736</v>
       </c>
+      <c r="AC20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.42901274295276104</v>
+      </c>
+      <c r="AD20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.12457214916231307</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.14000800961153392</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.19166725216047209</v>
+      </c>
+      <c r="AG20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.14545132952066497</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -5165,8 +5566,34 @@
       <c r="AB21" s="2">
         <v>0.25169999999999998</v>
       </c>
+      <c r="AC21" s="66">
+        <f>AC19/AC3</f>
+        <v>0.3246198830409357</v>
+      </c>
+      <c r="AD21" s="66">
+        <f t="shared" ref="AD21:AG21" si="4">AD19/AD3</f>
+        <v>0.33572657846617188</v>
+      </c>
+      <c r="AE21" s="66">
+        <f t="shared" si="4"/>
+        <v>0.3451344600984505</v>
+      </c>
+      <c r="AF21" s="66">
+        <f t="shared" si="4"/>
+        <v>0.38177234564566592</v>
+      </c>
+      <c r="AG21" s="66">
+        <f t="shared" si="4"/>
+        <v>0.40125573133958448</v>
+      </c>
+      <c r="AJ21" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK21" s="19" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="22" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -5251,8 +5678,16 @@
       <c r="AB22" s="10">
         <v>4672000000</v>
       </c>
+      <c r="AJ22" s="63">
+        <f>AB98/AJ101*-1</f>
+        <v>1.7369247156808834E-2</v>
+      </c>
+      <c r="AK22" s="64">
+        <f>AB107/AJ101</f>
+        <v>2.8930557567990144E-2</v>
+      </c>
     </row>
-    <row r="23" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -5338,7 +5773,7 @@
         <v>0.15129999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -5424,7 +5859,7 @@
         <v>-1580000000</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -5510,7 +5945,7 @@
         <v>3092000000</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -5596,7 +6031,7 @@
         <v>0.1002</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -5682,7 +6117,7 @@
         <v>1378000000</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -5767,10 +6202,25 @@
       <c r="AB28" s="11">
         <v>2290000000</v>
       </c>
+      <c r="AC28" s="67">
+        <v>6667000000</v>
+      </c>
+      <c r="AD28" s="67">
+        <v>7987000000</v>
+      </c>
+      <c r="AE28" s="67">
+        <v>9305000000</v>
+      </c>
+      <c r="AF28" s="67">
+        <v>11043000000</v>
+      </c>
+      <c r="AG28" s="67">
+        <v>11832000000</v>
+      </c>
     </row>
-    <row r="29" spans="1:34" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5786,99 +6236,119 @@
         <v>0.12160980632263207</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AB29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AG29" si="5">(F28/E28)-1</f>
         <v>5.421446428023402E-2</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.3581546981249089E-2</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.1238900851574275</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.1120385659668166</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21798126780648097</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.14181797824284104</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.25143469664660278</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.739325317623531E-2</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2.8509644825295388E-2</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.4081504151665913E-2</v>
       </c>
       <c r="P29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.6041189931350193E-2</v>
       </c>
       <c r="Q29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.89839867476532298</v>
       </c>
       <c r="R29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.17888307155322858</v>
       </c>
       <c r="S29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17817924194119739</v>
       </c>
       <c r="T29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.3830426939266394E-2</v>
       </c>
       <c r="U29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.5853658536585313E-2</v>
       </c>
       <c r="V29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18994778067885121</v>
       </c>
       <c r="W29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.10202962150301698</v>
       </c>
       <c r="X29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6177202588352424E-2</v>
       </c>
       <c r="Y29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.18662747979426897</v>
       </c>
       <c r="Z29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.5492321589882565</v>
       </c>
       <c r="AA29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1574344023323588E-2</v>
       </c>
       <c r="AB29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.56430745814307459</v>
       </c>
+      <c r="AC29" s="16">
+        <f t="shared" si="5"/>
+        <v>1.9113537117903929</v>
+      </c>
+      <c r="AD29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.19799010049497534</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.16501815450106427</v>
+      </c>
+      <c r="AF29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.18678130037614182</v>
+      </c>
+      <c r="AG29" s="16">
+        <f t="shared" si="5"/>
+        <v>7.144797609345277E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5963,8 +6433,28 @@
       <c r="AB30" s="2">
         <v>7.4200000000000002E-2</v>
       </c>
+      <c r="AC30" s="68">
+        <f>AC28/AC3</f>
+        <v>0.19494152046783625</v>
+      </c>
+      <c r="AD30" s="68">
+        <f t="shared" ref="AD30:AG30" si="6">AD28/AD3</f>
+        <v>0.21477358287619663</v>
+      </c>
+      <c r="AE30" s="68">
+        <f t="shared" si="6"/>
+        <v>0.2256359271563326</v>
+      </c>
+      <c r="AF30" s="68">
+        <f t="shared" si="6"/>
+        <v>0.24856506178675131</v>
+      </c>
+      <c r="AG30" s="68">
+        <f t="shared" si="6"/>
+        <v>0.24437192779544797</v>
+      </c>
     </row>
-    <row r="31" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -6049,8 +6539,23 @@
       <c r="AB31" s="12">
         <v>1.94</v>
       </c>
+      <c r="AC31" s="69">
+        <v>5.7</v>
+      </c>
+      <c r="AD31" s="69">
+        <v>6.83</v>
+      </c>
+      <c r="AE31" s="69">
+        <v>7.96</v>
+      </c>
+      <c r="AF31" s="69">
+        <v>9.44</v>
+      </c>
+      <c r="AG31" s="69">
+        <v>10.119999999999999</v>
+      </c>
     </row>
-    <row r="32" spans="1:34" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6310,7 +6815,7 @@
     </row>
     <row r="35" spans="1:28" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -6318,103 +6823,103 @@
         <v>0</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AB35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AB35" si="7">(D34-C34)/C34</f>
         <v>2.5311601150527327E-3</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8369929739999744E-3</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.3049608097540875E-3</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1842619322710911E-3</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.2616907562397023E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2439922256997711E-3</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.8055214730446825E-3</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.3160526443707491E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.1410733110964527E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.2246295658009956E-2</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.5188916876574307E-3</v>
       </c>
       <c r="P35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6835016835016834E-3</v>
       </c>
       <c r="R35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.6806722689075631E-3</v>
       </c>
       <c r="S35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5167785234899327E-3</v>
       </c>
       <c r="T35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5104602510460251E-3</v>
       </c>
       <c r="U35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.3472454090150253E-4</v>
       </c>
       <c r="W35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-8.3402835696413675E-4</v>
       </c>
       <c r="X35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3.3388981636060101E-3</v>
       </c>
       <c r="Y35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-1.0050251256281407E-2</v>
       </c>
       <c r="AA35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.0479357021996616E-3</v>
       </c>
       <c r="AB35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6423,85 +6928,85 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="21" x14ac:dyDescent="0.25">
@@ -6509,85 +7014,85 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -6687,10 +7192,10 @@
         <v>84457188</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>95601940</v>
@@ -6990,34 +7495,34 @@
         <v>59000000</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -7040,7 +7545,7 @@
         <v>188535641</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H43" s="1">
         <v>289400789</v>
@@ -7283,34 +7788,34 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L46" s="1">
         <v>987510258</v>
@@ -7369,7 +7874,7 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>41092686</v>
@@ -7455,7 +7960,7 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>41092686</v>
@@ -7541,43 +8046,43 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O49" s="1">
         <v>106000000</v>
@@ -7627,16 +8132,16 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1">
         <v>45479955</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1">
         <v>305331231</v>
@@ -7885,52 +8390,52 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="1">
         <v>1000000</v>
@@ -7939,31 +8444,31 @@
         <v>1000000</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z53" s="1">
         <v>1000000</v>
       </c>
       <c r="AA53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:28" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -8057,7 +8562,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>160890748</v>
@@ -8072,7 +8577,7 @@
         <v>355397435</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H55" s="1">
         <v>329123437</v>
@@ -8143,7 +8648,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1">
         <v>82457190</v>
@@ -8158,7 +8663,7 @@
         <v>146814869</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1">
         <v>22677827</v>
@@ -8229,43 +8734,43 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1">
         <v>125000000</v>
@@ -8315,34 +8820,34 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G58" s="1">
         <v>377633760</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L58" s="1">
         <v>405121689</v>
@@ -8401,7 +8906,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>165918925</v>
@@ -8487,7 +8992,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>409266863</v>
@@ -8588,7 +9093,7 @@
         <v>155485047</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1">
         <v>11327954</v>
@@ -8662,40 +9167,40 @@
         <v>18289000</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O62" s="1">
         <v>64000000</v>
@@ -8745,28 +9250,28 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1">
         <v>594578948</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1">
         <v>631566207</v>
@@ -8831,7 +9336,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>603246669</v>
@@ -9006,82 +9511,82 @@
         <v>1128834000</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9181,7 +9686,7 @@
         <v>263600645</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E68" s="1">
         <v>268005287</v>
@@ -9205,22 +9710,22 @@
         <v>316217736</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R68" s="1">
         <v>1229000000</v>
@@ -9347,7 +9852,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-304521514</v>
@@ -9401,31 +9906,31 @@
         <v>-1538000000</v>
       </c>
       <c r="T70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9511,7 +10016,7 @@
         <v>602000000</v>
       </c>
       <c r="AB71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -9691,85 +10196,85 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AB74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="21" x14ac:dyDescent="0.25">
@@ -9777,85 +10282,85 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="X75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Z75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AB75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:28" ht="19" x14ac:dyDescent="0.25">
@@ -10035,10 +10540,10 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1">
         <v>-511596</v>
@@ -10077,10 +10582,10 @@
         <v>-39000000</v>
       </c>
       <c r="P78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R78" s="1">
         <v>1000000000</v>
@@ -10121,73 +10626,73 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O79" s="1">
         <v>9000000</v>
       </c>
       <c r="P79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y79" s="1">
         <v>1835000000</v>
@@ -10204,114 +10709,114 @@
     </row>
     <row r="80" spans="1:28" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AB80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AB80" si="8">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="D80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="E80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="F80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="G80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="H80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="J80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="K80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="L80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="M80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="N80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.43328335832084E-4</v>
       </c>
       <c r="P80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="R80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="S80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="T80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="U80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="V80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="W80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="X80" s="15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="Y80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.6598918448081884E-2</v>
       </c>
       <c r="Z80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.9651766771526813E-2</v>
       </c>
       <c r="AA80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.10035198620788736</v>
       </c>
       <c r="AB80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.4607411246436906E-2</v>
       </c>
     </row>
@@ -10320,7 +10825,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>-145175309</v>
@@ -10406,49 +10911,49 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O82" s="1">
         <v>640000000</v>
       </c>
       <c r="P82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q82" s="1">
         <v>-426000000</v>
@@ -10457,34 +10962,34 @@
         <v>-297000000</v>
       </c>
       <c r="S82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:36" ht="21" x14ac:dyDescent="0.25">
@@ -10492,10 +10997,10 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1">
         <v>-15006816</v>
@@ -10507,124 +11012,124 @@
         <v>-2661850</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI83" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ83" s="63"/>
+        <v>91</v>
+      </c>
+      <c r="AI83" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ83" s="42"/>
     </row>
     <row r="84" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q84" s="1">
         <v>-380000000</v>
@@ -10662,44 +11167,44 @@
       <c r="AB84" s="1">
         <v>120000000</v>
       </c>
-      <c r="AI84" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ84" s="65"/>
+      <c r="AI84" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ84" s="43"/>
     </row>
     <row r="85" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L85" s="1">
         <v>33638405</v>
@@ -10752,10 +11257,10 @@
       <c r="AB85" s="1">
         <v>822000000</v>
       </c>
-      <c r="AI85" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ85" s="24">
+      <c r="AI85" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ85" s="45">
         <f>AB17</f>
         <v>2205000000</v>
       </c>
@@ -10845,10 +11350,10 @@
       <c r="AB86" s="1">
         <v>-1730000000</v>
       </c>
-      <c r="AI86" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ86" s="24">
+      <c r="AI86" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ86" s="45">
         <f>AB56</f>
         <v>4824000000</v>
       </c>
@@ -10938,10 +11443,10 @@
       <c r="AB87" s="10">
         <v>5646000000</v>
       </c>
-      <c r="AI87" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AJ87" s="24">
+      <c r="AI87" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ87" s="45">
         <f>AB61</f>
         <v>9547000000</v>
       </c>
@@ -10951,7 +11456,7 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1">
         <v>-290489710</v>
@@ -10999,162 +11504,162 @@
         <v>-445000000</v>
       </c>
       <c r="R88" s="1">
-        <v>0</v>
+        <v>-502000000</v>
       </c>
       <c r="S88" s="1">
-        <v>0</v>
+        <v>-511000000</v>
       </c>
       <c r="T88" s="1">
-        <v>0</v>
+        <v>-692000000</v>
       </c>
       <c r="U88" s="1">
-        <v>0</v>
+        <v>-570000000</v>
       </c>
       <c r="V88" s="1">
-        <v>0</v>
+        <v>-937000000</v>
       </c>
       <c r="W88" s="1">
-        <v>0</v>
+        <v>-1179000000</v>
       </c>
       <c r="X88" s="1">
-        <v>0</v>
+        <v>-1402000000</v>
       </c>
       <c r="Y88" s="1">
-        <v>0</v>
+        <v>-745000000</v>
       </c>
       <c r="Z88" s="1">
-        <v>0</v>
+        <v>-727000000</v>
       </c>
       <c r="AA88" s="1">
-        <v>0</v>
+        <v>-710000000</v>
       </c>
       <c r="AB88" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI88" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ88" s="34">
+        <v>-813000000</v>
+      </c>
+      <c r="AI88" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ88" s="47">
         <f>AJ85/(AJ86+AJ87)</f>
         <v>0.15343399902581589</v>
       </c>
     </row>
     <row r="89" spans="1:36" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15" t="e">
+        <f t="shared" ref="B89:AB89" si="9">(-1*B88)/B3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.4216297330639173E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>8.9783769932785362E-2</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.9317743643025453E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.5563134912014913E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.1423324150596875E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.1650311946107132E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.9196112533500256E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.8193955999362912E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0750531487787142E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.9005536896686212E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.9178979741926856E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.9322233956637883E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.1083208395802099E-2</v>
+      </c>
+      <c r="P89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.6797175866495507E-2</v>
+      </c>
+      <c r="Q89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.1265369212393736E-2</v>
+      </c>
+      <c r="R89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0943721876348394E-2</v>
+      </c>
+      <c r="S89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.0389533154921201E-2</v>
+      </c>
+      <c r="T89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.9405500825693295E-2</v>
+      </c>
+      <c r="U89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.7413071706824412E-2</v>
+      </c>
+      <c r="V89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.24712174780165E-2</v>
+      </c>
+      <c r="W89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.0255754475703324E-2</v>
+      </c>
+      <c r="X89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.6742755382871941E-2</v>
+      </c>
+      <c r="Y89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.7038797953035966E-2</v>
+      </c>
+      <c r="Z89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.6593020703782281E-2</v>
+      </c>
+      <c r="AA89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.5501041591839666E-2</v>
+      </c>
+      <c r="AB89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.6334542627623737E-2</v>
+      </c>
+      <c r="AI89" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:AB89" si="7">(-1*B88)/B3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.4216297330639173E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>8.9783769932785362E-2</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.9317743643025453E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.5563134912014913E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.1423324150596875E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.1650311946107132E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.9196112533500256E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.8193955999362912E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.0750531487787142E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.9005536896686212E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.9178979741926856E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.9322233956637883E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.1083208395802099E-2</v>
-      </c>
-      <c r="P89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.6797175866495507E-2</v>
-      </c>
-      <c r="Q89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.1265369212393736E-2</v>
-      </c>
-      <c r="R89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Y89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB89" s="15">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI89" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ89" s="24">
+      <c r="AJ89" s="45">
         <f>AB27</f>
         <v>1378000000</v>
       </c>
@@ -11164,28 +11669,28 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1">
         <v>-378757670</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1">
         <v>-167978588</v>
@@ -11244,10 +11749,10 @@
       <c r="AB90" s="1">
         <v>-390000000</v>
       </c>
-      <c r="AI90" s="23" t="s">
+      <c r="AI90" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="AJ90" s="24">
+      <c r="AJ90" s="45">
         <f>AB25</f>
         <v>3092000000</v>
       </c>
@@ -11257,25 +11762,25 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I91" s="1">
         <v>-638262753</v>
@@ -11337,10 +11842,10 @@
       <c r="AB91" s="1">
         <v>-2320000000</v>
       </c>
-      <c r="AI91" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="AJ91" s="34">
+      <c r="AI91" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="AJ91" s="47">
         <f>AJ89/AJ90</f>
         <v>0.44566623544631306</v>
       </c>
@@ -11350,31 +11855,31 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K92" s="1">
         <v>540840501</v>
@@ -11430,10 +11935,10 @@
       <c r="AB92" s="1">
         <v>4190000000</v>
       </c>
-      <c r="AI92" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ92" s="36">
+      <c r="AI92" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="AJ92" s="47">
         <f>AJ88*(1-AJ91)</f>
         <v>8.5053646290507268E-2</v>
       </c>
@@ -11523,10 +12028,10 @@
       <c r="AB93" s="1">
         <v>-813000000</v>
       </c>
-      <c r="AI93" s="64" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ93" s="65"/>
+      <c r="AI93" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="AJ93" s="43"/>
     </row>
     <row r="94" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11613,11 +12118,12 @@
       <c r="AB94" s="10">
         <v>667000000</v>
       </c>
-      <c r="AI94" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ94" s="37">
-        <v>4.095E-2</v>
+      <c r="AI94" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ94" s="60">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -11625,43 +12131,43 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O95" s="1">
         <v>-2303000000</v>
@@ -11705,10 +12211,10 @@
       <c r="AB95" s="1">
         <v>-1869000000</v>
       </c>
-      <c r="AI95" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ95" s="39" cm="1">
+      <c r="AI95" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ95" s="50" cm="1">
         <f t="array" ref="AJ95">_FV(A1,"Beta")</f>
         <v>1.1912</v>
       </c>
@@ -11733,16 +12239,16 @@
         <v>125823520</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1">
         <v>248254158</v>
@@ -11781,27 +12287,27 @@
         <v>27000000</v>
       </c>
       <c r="W96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI96" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ96" s="37">
+        <v>91</v>
+      </c>
+      <c r="AI96" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ96" s="48">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -11810,19 +12316,19 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1">
         <v>-682128</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1">
         <v>-94408440</v>
@@ -11849,7 +12355,7 @@
         <v>-487034520</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P97" s="1">
         <v>-220000000</v>
@@ -11861,41 +12367,41 @@
         <v>-53000000</v>
       </c>
       <c r="S97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W97" s="1">
         <v>-500000000</v>
       </c>
       <c r="X97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z97" s="1">
         <v>-1492000000</v>
       </c>
       <c r="AA97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AB97" s="1">
         <v>-1500000000</v>
       </c>
-      <c r="AI97" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ97" s="36">
+      <c r="AI97" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ97" s="47">
         <f>(AJ94)+((AJ95)*(AJ96-AJ94))</f>
-        <v>9.2231160000000006E-2</v>
+        <v>9.2581056000000009E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -11983,10 +12489,10 @@
       <c r="AB98" s="1">
         <v>-2865000000</v>
       </c>
-      <c r="AI98" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJ98" s="65"/>
+      <c r="AI98" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ98" s="43"/>
     </row>
     <row r="99" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12073,10 +12579,10 @@
       <c r="AB99" s="1">
         <v>-103000000</v>
       </c>
-      <c r="AI99" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ99" s="24">
+      <c r="AI99" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ99" s="45">
         <f>AJ86+AJ87</f>
         <v>14371000000</v>
       </c>
@@ -12166,10 +12672,10 @@
       <c r="AB100" s="10">
         <v>-6337000000</v>
       </c>
-      <c r="AI100" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJ100" s="34">
+      <c r="AI100" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="AJ100" s="47">
         <f>AJ99/AJ103</f>
         <v>8.0142674147616208E-2</v>
       </c>
@@ -12179,10 +12685,10 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1">
         <v>-46469970</v>
@@ -12259,10 +12765,10 @@
       <c r="AB101" s="1">
         <v>133000000</v>
       </c>
-      <c r="AI101" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJ101" s="40" cm="1">
+      <c r="AI101" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ101" s="51" cm="1">
         <f t="array" ref="AJ101">_FV(A1,"Market cap",TRUE)</f>
         <v>164946700000</v>
       </c>
@@ -12352,10 +12858,10 @@
       <c r="AB102" s="10">
         <v>108000000</v>
       </c>
-      <c r="AI102" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ102" s="34">
+      <c r="AI102" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ102" s="47">
         <f>AJ101/AJ103</f>
         <v>0.91985732585238378</v>
       </c>
@@ -12445,10 +12951,10 @@
       <c r="AB103" s="1">
         <v>8898000000</v>
       </c>
-      <c r="AI103" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AJ103" s="41">
+      <c r="AI103" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ103" s="52">
         <f>AJ99+AJ101</f>
         <v>179317700000</v>
       </c>
@@ -12538,414 +13044,509 @@
       <c r="AB104" s="11">
         <v>9006000000</v>
       </c>
-      <c r="AI104" s="64" t="s">
-        <v>145</v>
-      </c>
-      <c r="AJ104" s="65"/>
+      <c r="AI104" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ104" s="43"/>
     </row>
     <row r="105" spans="1:36" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.72757402631246937</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>0.81061477792021019</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.19103619293941287</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.38852614576582623</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>0.55018331467256787</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:AB105" si="8">(H106/G106)-1</f>
-        <v>1.2557805794974164</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.11004052641013129</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.31484973428092822</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.16653700543048588</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.10025181250110382</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>4.0413780553774981E-2</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.18123307568690983</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.53394734331536098</v>
-      </c>
-      <c r="P105" s="15">
-        <f t="shared" si="8"/>
-        <v>-6.8817204301075297E-2</v>
-      </c>
-      <c r="Q105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.28175519630484991</v>
-      </c>
-      <c r="R105" s="15">
-        <f t="shared" si="8"/>
-        <v>-1.4714714714714749E-2</v>
-      </c>
-      <c r="S105" s="15">
-        <f t="shared" si="8"/>
-        <v>-4.5717768972873829E-3</v>
-      </c>
-      <c r="T105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.15431720759338641</v>
-      </c>
-      <c r="U105" s="15">
-        <f t="shared" si="8"/>
-        <v>8.6893555394641497E-2</v>
-      </c>
-      <c r="V105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.20819453697534973</v>
-      </c>
-      <c r="W105" s="15">
-        <f t="shared" si="8"/>
-        <v>3.9426523297491078E-2</v>
-      </c>
-      <c r="X105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.24535809018567645</v>
-      </c>
-      <c r="Y105" s="15">
-        <f t="shared" si="8"/>
-        <v>-5.8347978910369025E-2</v>
-      </c>
-      <c r="Z105" s="15">
-        <f t="shared" si="8"/>
-        <v>1.3807390817469205</v>
-      </c>
-      <c r="AA105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.14973345876450295</v>
-      </c>
-      <c r="AB105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.12004425594689283</v>
-      </c>
-      <c r="AC105" s="15"/>
-      <c r="AD105" s="15"/>
-      <c r="AE105" s="15"/>
-      <c r="AF105" s="15"/>
-      <c r="AG105" s="15"/>
-      <c r="AH105" s="15"/>
-      <c r="AI105" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ105" s="26">
+        <v>162</v>
+      </c>
+      <c r="B105" s="1" t="e">
+        <f t="shared" ref="B105:AA105" si="10">(B22*(1-$AJ$91))+B77+B88-B81</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>405138095.73156536</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>241858994.49547219</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>416062863.11254859</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>-39521133.181112528</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>669245513.22121608</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>-3575513346.2587323</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>810811435.68887472</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>829352519.5407505</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>1376228591.0976715</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>1506064377.1093144</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>1673760148.2858992</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>2139418640.2457957</v>
+      </c>
+      <c r="O105" s="1">
+        <f t="shared" si="10"/>
+        <v>978615782.66494203</v>
+      </c>
+      <c r="P105" s="1">
+        <f t="shared" si="10"/>
+        <v>689278783.95860291</v>
+      </c>
+      <c r="Q105" s="1">
+        <f t="shared" si="10"/>
+        <v>3728703104.7865462</v>
+      </c>
+      <c r="R105" s="1">
+        <f t="shared" si="10"/>
+        <v>2409366752.9107375</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="10"/>
+        <v>3172860931.4359641</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="10"/>
+        <v>2712819534.2820182</v>
+      </c>
+      <c r="U105" s="1">
+        <f t="shared" si="10"/>
+        <v>3213027166.882277</v>
+      </c>
+      <c r="V105" s="1">
+        <f t="shared" si="10"/>
+        <v>3168503880.9831829</v>
+      </c>
+      <c r="W105" s="1">
+        <f t="shared" si="10"/>
+        <v>2385485769.7283316</v>
+      </c>
+      <c r="X105" s="1">
+        <f t="shared" si="10"/>
+        <v>3974365459.2496767</v>
+      </c>
+      <c r="Y105" s="1">
+        <f t="shared" si="10"/>
+        <v>4332534928.8486423</v>
+      </c>
+      <c r="Z105" s="1">
+        <f t="shared" si="10"/>
+        <v>4116352522.6390686</v>
+      </c>
+      <c r="AA105" s="1">
+        <f t="shared" si="10"/>
+        <v>3373978007.7619667</v>
+      </c>
+      <c r="AB105" s="1">
+        <f>(AB22*(1-$AJ$91))+AB77+AB88-AB81</f>
+        <v>3896847347.9948254</v>
+      </c>
+      <c r="AC105" s="28">
+        <f>AB105*(1+$AJ$106)</f>
+        <v>4264117090.2890286</v>
+      </c>
+      <c r="AD105" s="28">
+        <f t="shared" ref="AD105:AG105" si="11">AC105*(1+$AJ$106)</f>
+        <v>4666001240.4774132</v>
+      </c>
+      <c r="AE105" s="28">
+        <f t="shared" si="11"/>
+        <v>5105762134.3744678</v>
+      </c>
+      <c r="AF105" s="28">
+        <f t="shared" si="11"/>
+        <v>5586969576.1471405</v>
+      </c>
+      <c r="AG105" s="28">
+        <f t="shared" si="11"/>
+        <v>6113529816.56635</v>
+      </c>
+      <c r="AH105" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI105" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ105" s="54">
         <f>(AJ100*AJ92)+(AJ102*AJ97)</f>
-        <v>9.1655934857590077E-2</v>
+        <v>9.1977789256476525E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>483497000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>131717141</v>
-      </c>
-      <c r="D106" s="1">
-        <v>238489002</v>
-      </c>
-      <c r="E106" s="1">
-        <v>284049033</v>
-      </c>
-      <c r="F106" s="1">
-        <v>394409509</v>
-      </c>
-      <c r="G106" s="1">
-        <v>611407040</v>
-      </c>
-      <c r="H106" s="1">
-        <v>1379200127</v>
-      </c>
-      <c r="I106" s="1">
-        <v>1227432219</v>
-      </c>
-      <c r="J106" s="1">
-        <v>1613888927</v>
-      </c>
-      <c r="K106" s="1">
-        <v>1345116698</v>
-      </c>
-      <c r="L106" s="1">
-        <v>1479967085</v>
-      </c>
-      <c r="M106" s="1">
-        <v>1539778150</v>
-      </c>
-      <c r="N106" s="1">
-        <v>1818836880</v>
-      </c>
-      <c r="O106" s="1">
-        <v>2790000000</v>
-      </c>
-      <c r="P106" s="1">
-        <v>2598000000</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>3330000000</v>
-      </c>
-      <c r="R106" s="1">
-        <v>3281000000</v>
-      </c>
-      <c r="S106" s="1">
-        <v>3266000000</v>
-      </c>
-      <c r="T106" s="1">
-        <v>2762000000</v>
-      </c>
-      <c r="U106" s="1">
-        <v>3002000000</v>
-      </c>
-      <c r="V106" s="1">
-        <v>3627000000</v>
-      </c>
-      <c r="W106" s="1">
-        <v>3770000000</v>
-      </c>
-      <c r="X106" s="1">
-        <v>2845000000</v>
-      </c>
-      <c r="Y106" s="1">
-        <v>2679000000</v>
-      </c>
-      <c r="Z106" s="1">
-        <v>6378000000</v>
-      </c>
-      <c r="AA106" s="1">
-        <v>5423000000</v>
-      </c>
-      <c r="AB106" s="1">
-        <v>4772000000</v>
-      </c>
-      <c r="AC106" s="42">
-        <f>AB106*(1+$AJ$106)</f>
-        <v>5193159807.7774029</v>
-      </c>
-      <c r="AD106" s="42">
-        <f t="shared" ref="AD106:AG106" si="9">AC106*(1+$AJ$106)</f>
-        <v>5651489687.5764103</v>
-      </c>
-      <c r="AE106" s="42">
-        <f t="shared" si="9"/>
-        <v>6150270138.2209311</v>
-      </c>
-      <c r="AF106" s="42">
-        <f t="shared" si="9"/>
-        <v>6693071183.7348089</v>
-      </c>
-      <c r="AG106" s="42">
-        <f t="shared" si="9"/>
-        <v>7283777925.8098774</v>
-      </c>
-      <c r="AH106" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="AI106" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="AJ106" s="45">
+      <c r="A106" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f>(C107/B107)-1</f>
+        <v>-0.72757402631246937</v>
+      </c>
+      <c r="D106" s="15">
+        <f>(D107/C107)-1</f>
+        <v>0.81061477792021019</v>
+      </c>
+      <c r="E106" s="15">
+        <f>(E107/D107)-1</f>
+        <v>0.19103619293941287</v>
+      </c>
+      <c r="F106" s="15">
+        <f>(F107/E107)-1</f>
+        <v>0.38852614576582623</v>
+      </c>
+      <c r="G106" s="15">
+        <f>(G107/F107)-1</f>
+        <v>0.55018331467256787</v>
+      </c>
+      <c r="H106" s="15">
+        <f>(H107/G107)-1</f>
+        <v>1.2557805794974164</v>
+      </c>
+      <c r="I106" s="15">
+        <f>(I107/H107)-1</f>
+        <v>-0.11004052641013129</v>
+      </c>
+      <c r="J106" s="15">
+        <f>(J107/I107)-1</f>
+        <v>0.31484973428092822</v>
+      </c>
+      <c r="K106" s="15">
+        <f>(K107/J107)-1</f>
+        <v>-0.16653700543048588</v>
+      </c>
+      <c r="L106" s="15">
+        <f>(L107/K107)-1</f>
+        <v>0.10025181250110382</v>
+      </c>
+      <c r="M106" s="15">
+        <f>(M107/L107)-1</f>
+        <v>4.0413780553774981E-2</v>
+      </c>
+      <c r="N106" s="15">
+        <f>(N107/M107)-1</f>
+        <v>0.18123307568690983</v>
+      </c>
+      <c r="O106" s="15">
+        <f>(O107/N107)-1</f>
+        <v>0.53394734331536098</v>
+      </c>
+      <c r="P106" s="15">
+        <f>(P107/O107)-1</f>
+        <v>-6.8817204301075297E-2</v>
+      </c>
+      <c r="Q106" s="15">
+        <f>(Q107/P107)-1</f>
+        <v>0.28175519630484991</v>
+      </c>
+      <c r="R106" s="15">
+        <f>(R107/Q107)-1</f>
+        <v>-1.4714714714714749E-2</v>
+      </c>
+      <c r="S106" s="15">
+        <f>(S107/R107)-1</f>
+        <v>-4.5717768972873829E-3</v>
+      </c>
+      <c r="T106" s="15">
+        <f>(T107/S107)-1</f>
+        <v>-0.15431720759338641</v>
+      </c>
+      <c r="U106" s="15">
+        <f>(U107/T107)-1</f>
+        <v>8.6893555394641497E-2</v>
+      </c>
+      <c r="V106" s="15">
+        <f>(V107/U107)-1</f>
+        <v>0.20819453697534973</v>
+      </c>
+      <c r="W106" s="15">
+        <f>(W107/V107)-1</f>
+        <v>3.9426523297491078E-2</v>
+      </c>
+      <c r="X106" s="15">
+        <f>(X107/W107)-1</f>
+        <v>-0.24535809018567645</v>
+      </c>
+      <c r="Y106" s="15">
+        <f>(Y107/X107)-1</f>
+        <v>-5.8347978910369025E-2</v>
+      </c>
+      <c r="Z106" s="15">
+        <f>(Z107/Y107)-1</f>
+        <v>1.3807390817469205</v>
+      </c>
+      <c r="AA106" s="15">
+        <f>(AA107/Z107)-1</f>
+        <v>-0.14973345876450295</v>
+      </c>
+      <c r="AB106" s="15">
+        <f>(AB107/AA107)-1</f>
+        <v>-0.12004425594689283</v>
+      </c>
+      <c r="AC106" s="71">
+        <v>7316000000</v>
+      </c>
+      <c r="AD106" s="71">
+        <v>8577000000</v>
+      </c>
+      <c r="AE106" s="71">
+        <v>9894000000</v>
+      </c>
+      <c r="AF106" s="71">
+        <v>12190000000</v>
+      </c>
+      <c r="AG106" s="71">
+        <v>14286000000</v>
+      </c>
+      <c r="AH106" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI106" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ106" s="56">
         <f>(SUM(AC4:AG4)/5)</f>
-        <v>8.8256455946647744E-2</v>
+        <v>9.4247916199023424E-2</v>
       </c>
     </row>
     <row r="107" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="13"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="13"/>
-      <c r="S107" s="13"/>
-      <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
-      <c r="X107" s="13"/>
-      <c r="Y107" s="13"/>
-      <c r="Z107" s="13"/>
-      <c r="AA107" s="13"/>
-      <c r="AB107" s="13"/>
-      <c r="AC107" s="43"/>
-      <c r="AD107" s="43"/>
-      <c r="AE107" s="43"/>
-      <c r="AF107" s="43"/>
-      <c r="AG107" s="46">
+      <c r="A107" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B107" s="1">
+        <v>483497000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>131717141</v>
+      </c>
+      <c r="D107" s="1">
+        <v>238489002</v>
+      </c>
+      <c r="E107" s="1">
+        <v>284049033</v>
+      </c>
+      <c r="F107" s="1">
+        <v>394409509</v>
+      </c>
+      <c r="G107" s="1">
+        <v>611407040</v>
+      </c>
+      <c r="H107" s="1">
+        <v>1379200127</v>
+      </c>
+      <c r="I107" s="1">
+        <v>1227432219</v>
+      </c>
+      <c r="J107" s="1">
+        <v>1613888927</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1345116698</v>
+      </c>
+      <c r="L107" s="1">
+        <v>1479967085</v>
+      </c>
+      <c r="M107" s="1">
+        <v>1539778150</v>
+      </c>
+      <c r="N107" s="1">
+        <v>1818836880</v>
+      </c>
+      <c r="O107" s="1">
+        <v>2790000000</v>
+      </c>
+      <c r="P107" s="1">
+        <v>2598000000</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>3330000000</v>
+      </c>
+      <c r="R107" s="1">
+        <v>3281000000</v>
+      </c>
+      <c r="S107" s="1">
+        <v>3266000000</v>
+      </c>
+      <c r="T107" s="1">
+        <v>2762000000</v>
+      </c>
+      <c r="U107" s="1">
+        <v>3002000000</v>
+      </c>
+      <c r="V107" s="1">
+        <v>3627000000</v>
+      </c>
+      <c r="W107" s="1">
+        <v>3770000000</v>
+      </c>
+      <c r="X107" s="1">
+        <v>2845000000</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>2679000000</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>6378000000</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>5423000000</v>
+      </c>
+      <c r="AB107" s="1">
+        <v>4772000000</v>
+      </c>
+      <c r="AC107" s="29"/>
+      <c r="AD107" s="29"/>
+      <c r="AE107" s="29"/>
+      <c r="AF107" s="29"/>
+      <c r="AG107" s="72">
         <f>AG106*(1+AJ107)/(AJ108-AJ107)</f>
-        <v>112006116033.11702</v>
-      </c>
-      <c r="AH107" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="AI107" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ107" s="49">
+        <v>218626953241.57861</v>
+      </c>
+      <c r="AH107" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI107" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="AJ107" s="58">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AC108" s="46">
-        <f t="shared" ref="AC108:AE108" si="10">AC107+AC106</f>
-        <v>5193159807.7774029</v>
-      </c>
-      <c r="AD108" s="46">
-        <f t="shared" si="10"/>
-        <v>5651489687.5764103</v>
-      </c>
-      <c r="AE108" s="46">
-        <f t="shared" si="10"/>
-        <v>6150270138.2209311</v>
-      </c>
-      <c r="AF108" s="46">
-        <f>AF107+AF106</f>
-        <v>6693071183.7348089</v>
-      </c>
-      <c r="AG108" s="46">
+      <c r="AC108" s="72">
+        <f t="shared" ref="AC108:AF108" si="12">AC107+AC106</f>
+        <v>7316000000</v>
+      </c>
+      <c r="AD108" s="72">
+        <f t="shared" si="12"/>
+        <v>8577000000</v>
+      </c>
+      <c r="AE108" s="72">
+        <f t="shared" si="12"/>
+        <v>9894000000</v>
+      </c>
+      <c r="AF108" s="72">
+        <f t="shared" si="12"/>
+        <v>12190000000</v>
+      </c>
+      <c r="AG108" s="72">
         <f>AG107+AG106</f>
-        <v>119289893958.9269</v>
-      </c>
-      <c r="AH108" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI108" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ108" s="51">
+        <v>232912953241.57861</v>
+      </c>
+      <c r="AH108" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI108" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ108" s="56">
         <f>AJ105</f>
-        <v>9.1655934857590077E-2</v>
+        <v>9.1977789256476525E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AC109" s="60" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD109" s="61"/>
+      <c r="AC109" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD109" s="40"/>
     </row>
     <row r="110" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC110" s="52" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD110" s="40">
+      <c r="AC110" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD110" s="27">
         <f>NPV(AJ108,AC108,AD108,AE108,AF108,AG108)</f>
-        <v>95883857793.509201</v>
+        <v>180076109614.63449</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC111" s="52" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD111" s="40">
+      <c r="AC111" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD111" s="27">
         <f>AB40</f>
         <v>9862000000</v>
       </c>
     </row>
     <row r="112" spans="1:36" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC112" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="AD112" s="40">
+      <c r="AC112" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD112" s="27">
         <f>AJ99</f>
         <v>14371000000</v>
       </c>
     </row>
     <row r="113" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC113" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD113" s="40">
+      <c r="AC113" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD113" s="27">
         <f>AD110+AD111-AD112</f>
-        <v>91374857793.509201</v>
+        <v>175567109614.63449</v>
       </c>
     </row>
     <row r="114" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC114" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD114" s="53">
+      <c r="AC114" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD114" s="32">
         <f>AB34*(1+(5*AH16))</f>
         <v>1161370073.3201647</v>
       </c>
     </row>
     <row r="115" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC115" s="54" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD115" s="55">
+      <c r="AC115" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD115" s="34">
         <f>AD113/AD114</f>
-        <v>78.678502135226907</v>
+        <v>151.17240718345462</v>
       </c>
     </row>
     <row r="116" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC116" s="52" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD116" s="56" cm="1">
+      <c r="AC116" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD116" s="35" cm="1">
         <f t="array" ref="AD116">_FV(A1,"Price")</f>
         <v>135.11000000000001</v>
       </c>
     </row>
     <row r="117" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC117" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="AD117" s="58">
+      <c r="AC117" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD117" s="37">
         <f>AD115/AD116-1</f>
-        <v>-0.41767077096271998</v>
+        <v>0.11888392556771965</v>
       </c>
     </row>
     <row r="118" spans="29:30" ht="20" x14ac:dyDescent="0.25">
-      <c r="AC118" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD118" s="59" t="str">
+      <c r="AC118" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD118" s="38" t="str">
         <f>IF(AD115&gt;AD116,"BUY","SELL")</f>
-        <v>SELL</v>
+        <v>BUY</v>
       </c>
     </row>
   </sheetData>
@@ -13014,8 +13615,9 @@
     <hyperlink ref="AB36" r:id="rId54" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="AB74" r:id="rId55" tooltip="https://sec.gov" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
     <hyperlink ref="AC1" r:id="rId56" display="https://finbox.com/NYSE:SAP/explorer/revenue_proj" xr:uid="{F453CCC6-CC62-C845-8A4B-373502DD3015}"/>
+    <hyperlink ref="AH106" r:id="rId57" xr:uid="{8063B6D4-5822-7543-ACCC-EB3F4FC085DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId57"/>
+  <drawing r:id="rId58"/>
 </worksheet>
 </file>